--- a/biology/Botanique/Tépale/Tépale.xlsx
+++ b/biology/Botanique/Tépale/Tépale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9pale</t>
+          <t>Tépale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un tépale est une pièce florale externe et interne du périanthe, dont on ne peut pas dire s'il s'agit d’un pétale ou d’un sépale, lorsque les deux ont la même apparence. 
 L'ensemble des tépales d'une fleur est appelé périanthe (ou périgone). Le périanthe est dit homochlamydé.
